--- a/artfynd/A 43487-2019.xlsx
+++ b/artfynd/A 43487-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95029995</v>
+        <v>1851481</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>77595</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>6450</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kottorp, Ög</t>
+          <t>Kottorp, Rävbergsmon, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528895.7832218733</v>
+        <v>528835.7902055666</v>
       </c>
       <c r="R2" t="n">
-        <v>6489721.514837625</v>
+        <v>6489631.821332798</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>1996-06-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +760,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>1996-06-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ek, Tommy, Länsstyrelsens hotartsregister</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,26 +785,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>David Ek</t>
+          <t>Linköpings Kommun (hl)</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>David Ek</t>
+          <t>Via Linköpings Kommun (hl)</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Linköpings kommuns naturvårdsprogram 2023</t>
+          <t>Linköpings kommuns hotartsdatabas 2012</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95030063</v>
+        <v>95029995</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528864.0637971236</v>
+        <v>528895.7832218733</v>
       </c>
       <c r="R3" t="n">
-        <v>6489839.234213434</v>
+        <v>6489721.514837625</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -912,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95029996</v>
+        <v>95030063</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +929,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528834.0431681046</v>
+        <v>528864.0637971236</v>
       </c>
       <c r="R4" t="n">
-        <v>6489797.781457343</v>
+        <v>6489839.234213434</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1021,6 +1026,122 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr">
+        <is>
+          <t>Linköpings kommuns naturvårdsprogram 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>95029996</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89392</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Kottorp, Ög</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>528834.0431681046</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6489797.781457343</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Linköping</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Stjärnorp</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>David Ek</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>David Ek</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>Linköpings kommuns naturvårdsprogram 2023</t>
         </is>
